--- a/SubwayData/Excel/신분당선 역간 거리 정보.xlsx
+++ b/SubwayData/Excel/신분당선 역간 거리 정보.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/WebstormProjects/FreshRoute_BE/SubwayData/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8889A7E-3DDC-ED41-85C2-B4D6B8B063BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D23997A-601E-1C4C-BAE0-34202DF2AA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="27900" windowHeight="16940" xr2:uid="{DB4A83AB-F658-3F49-BDEB-2C87FF890534}"/>
   </bookViews>
@@ -69,24 +69,12 @@
     <t>강남</t>
   </si>
   <si>
-    <t>양재(서초구청)</t>
-  </si>
-  <si>
-    <t>양재시민의숲(매헌)</t>
-  </si>
-  <si>
     <t>청계산입구</t>
   </si>
   <si>
-    <t>판교(판교테크노밸리)</t>
-  </si>
-  <si>
     <t>정자</t>
   </si>
   <si>
-    <t>미금(분당서울대병원)</t>
-  </si>
-  <si>
     <t>동천</t>
   </si>
   <si>
@@ -99,10 +87,28 @@
     <t>상현</t>
   </si>
   <si>
-    <t>광교중앙(아주대)</t>
-  </si>
-  <si>
-    <t>광교(경기대)</t>
+    <t>양재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양재시민의숲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광교중앙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -518,7 +524,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -601,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3">
         <v>1.5</v>
@@ -615,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3">
         <v>1.6</v>
@@ -629,7 +635,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3">
         <v>2.9</v>
@@ -643,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3">
         <v>8.1999999999999993</v>
@@ -657,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3">
         <v>3.1</v>
@@ -671,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3">
         <v>1.8</v>
@@ -685,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3">
         <v>1.7</v>
@@ -699,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3">
         <v>2.1</v>
@@ -713,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3">
         <v>1.7</v>
@@ -727,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3">
         <v>2.1</v>
